--- a/app/core/templates/template.xlsx
+++ b/app/core/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1454F76B-E715-4F10-B7EF-73699138ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3946F4-E7C9-4420-849D-3742EDF0F731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{95C50DB0-C837-402E-B78C-0FD0B8789DBA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Raport</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Denumirea si locul actiunilor organizate</t>
   </si>
   <si>
-    <t>EVIDENTA CITITORILOR SI A FRECVENTEI IN CURSUL LUNII ___________________ , ANUL __________</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Zilele lunii</t>
   </si>
   <si>
@@ -97,13 +94,79 @@
   </si>
   <si>
     <t>Numarul participantilor la actiuni cultural-stiintifice</t>
+  </si>
+  <si>
+    <t>Filozofie c.z.u. 1</t>
+  </si>
+  <si>
+    <t>Stiinte sociale c.z.u. 3</t>
+  </si>
+  <si>
+    <t>Stiinte pure c.z.u. 5</t>
+  </si>
+  <si>
+    <t>Tehnica c.z.u. 6 afara de 61 si 63</t>
+  </si>
+  <si>
+    <t>Medicina c.z.u. 61</t>
+  </si>
+  <si>
+    <t>Agrotehnica c.z.u. 63</t>
+  </si>
+  <si>
+    <t>Literatura c.z.u. 82</t>
+  </si>
+  <si>
+    <t>Literatura pentru copii c.z.u. 82-73</t>
+  </si>
+  <si>
+    <t>Dupa limba</t>
+  </si>
+  <si>
+    <t>Alte materii c.z.u. 0, 2, 7, 91, 92</t>
+  </si>
+  <si>
+    <t>Total documente difuzate (U.B.)</t>
+  </si>
+  <si>
+    <t>Limba romana 8 - 135.1</t>
+  </si>
+  <si>
+    <t>Alte limbi</t>
+  </si>
+  <si>
+    <t>Observatii</t>
+  </si>
+  <si>
+    <t>Donatii</t>
+  </si>
+  <si>
+    <t>Carti consultate in biblioteca (U.B.)</t>
+  </si>
+  <si>
+    <t>Ziare consultate in biblioteca</t>
+  </si>
+  <si>
+    <t>Fond general de carte la sfarsitul anului</t>
+  </si>
+  <si>
+    <t>Carti intrate in cursul anului</t>
+  </si>
+  <si>
+    <t>Valoare carti intrate</t>
+  </si>
+  <si>
+    <t>U.B.</t>
+  </si>
+  <si>
+    <t>Valoare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +202,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -180,8 +236,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -248,6 +308,43 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -256,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,7 +390,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,6 +398,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,142 +727,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27E9853-F83D-4497-B299-129CC4113BA6}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="Q28" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="15" width="4.77734375" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="26" width="4.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="37" width="4.77734375" customWidth="1"/>
+    <col min="38" max="38" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="U2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL2" s="24"/>
+    </row>
+    <row r="3" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="9"/>
+    </row>
+    <row r="4" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -767,12 +1016,35 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="20"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="15">
+        <v>2</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -788,12 +1060,35 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="20"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="15">
+        <v>3</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -809,12 +1104,35 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="20"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="15">
+        <v>4</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -830,12 +1148,35 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="20"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="15">
+        <v>5</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -851,12 +1192,35 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="20"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="15">
+        <v>6</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -872,12 +1236,35 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="20"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="15">
+        <v>7</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="4"/>
+    </row>
+    <row r="11" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -893,12 +1280,35 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="20"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="15">
+        <v>8</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -914,12 +1324,35 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="20"/>
+      <c r="P12" s="19"/>
       <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="15">
+        <v>9</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -935,12 +1368,35 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="20"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="15">
+        <v>10</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -956,12 +1412,35 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="20"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="15">
+        <v>11</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -977,12 +1456,35 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="20"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="15">
+        <v>12</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -998,12 +1500,35 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="20"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="15">
+        <v>13</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1019,12 +1544,35 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="20"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="15">
+        <v>14</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1040,12 +1588,35 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="20"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="15">
+        <v>15</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1061,12 +1632,35 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="20"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="15">
+        <v>16</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1082,12 +1676,35 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="15">
+        <v>17</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1103,12 +1720,35 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="20"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="15">
+        <v>18</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1124,12 +1764,35 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="20"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="15">
+        <v>19</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1145,12 +1808,35 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="20"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R23" s="15">
+        <v>20</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="4"/>
+    </row>
+    <row r="24" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1166,12 +1852,35 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="20"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="15">
+        <v>21</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="4"/>
+    </row>
+    <row r="25" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1187,12 +1896,35 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="20"/>
+      <c r="P25" s="19"/>
       <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="15">
+        <v>22</v>
+      </c>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="4"/>
+    </row>
+    <row r="26" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1208,12 +1940,35 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="20"/>
+      <c r="P26" s="19"/>
       <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="15">
+        <v>23</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="4"/>
+    </row>
+    <row r="27" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1229,12 +1984,35 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="20"/>
+      <c r="P27" s="19"/>
       <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="15">
+        <v>24</v>
+      </c>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="4"/>
+    </row>
+    <row r="28" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1250,12 +2028,35 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="20"/>
+      <c r="P28" s="19"/>
       <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="15">
+        <v>25</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="4"/>
+    </row>
+    <row r="29" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1271,12 +2072,35 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="20"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="15">
+        <v>26</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="4"/>
+    </row>
+    <row r="30" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1292,12 +2116,35 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="20"/>
+      <c r="P30" s="19"/>
       <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="15">
+        <v>27</v>
+      </c>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="4"/>
+    </row>
+    <row r="31" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1313,12 +2160,35 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="20"/>
+      <c r="P31" s="19"/>
       <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="15">
+        <v>28</v>
+      </c>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="4"/>
+    </row>
+    <row r="32" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1334,12 +2204,35 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="20"/>
+      <c r="P32" s="19"/>
       <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="15">
+        <v>29</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="4"/>
+    </row>
+    <row r="33" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1355,12 +2248,35 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="20"/>
+      <c r="P33" s="19"/>
       <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="15">
+        <v>30</v>
+      </c>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="4"/>
+    </row>
+    <row r="34" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1376,12 +2292,35 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="20"/>
+      <c r="P34" s="19"/>
       <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
+      <c r="R34" s="15">
         <v>31</v>
+      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="4"/>
+    </row>
+    <row r="35" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1397,12 +2336,35 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="20"/>
+      <c r="P35" s="19"/>
       <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="R35" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="4"/>
+    </row>
+    <row r="36" spans="1:38" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1418,42 +2380,55 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="20"/>
+      <c r="P36" s="19"/>
       <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="R36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="4"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="16">
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CEVIDENTA CITITORILOR SI A FRECVENTEI IN CURSUL LUNII ___________________ , ANUL __________</oddHeader>
+    <oddHeader>&amp;LEVIDENTA CITITORILOR SI A FRECVENTEI IN CURSUL LUNII ___________________ , ANUL __________</oddHeader>
     <oddFooter xml:space="preserve">&amp;RSEMNATURA BIBLIOTECAR SI STAMPILA
 </oddFooter>
   </headerFooter>
